--- a/EV76C661___PCB/MOTHERBOARD/РАСПИНОВКА.xlsx
+++ b/EV76C661___PCB/MOTHERBOARD/РАСПИНОВКА.xlsx
@@ -337,20 +337,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,12 +671,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -688,14 +688,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
@@ -799,17 +799,17 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -823,17 +823,17 @@
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -853,11 +853,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -869,17 +869,17 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -889,17 +889,17 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -911,18 +911,18 @@
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -930,18 +930,18 @@
       <c r="C13" s="3"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -953,18 +953,18 @@
       <c r="C14" s="6"/>
       <c r="D14" s="13"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -976,18 +976,18 @@
       <c r="C15" s="6"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -999,18 +999,18 @@
       <c r="C16" s="6"/>
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1022,18 +1022,18 @@
       <c r="C17" s="6"/>
       <c r="D17" s="13"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1045,18 +1045,18 @@
       <c r="C18" s="6"/>
       <c r="D18" s="13"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1068,18 +1068,18 @@
       <c r="C19" s="6"/>
       <c r="D19" s="13"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1091,18 +1091,18 @@
       <c r="C20" s="6"/>
       <c r="D20" s="13"/>
       <c r="E20" s="4"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1114,18 +1114,18 @@
       <c r="C21" s="6"/>
       <c r="D21" s="13"/>
       <c r="E21" s="4"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1133,18 +1133,18 @@
       <c r="C22" s="3"/>
       <c r="D22" s="13"/>
       <c r="E22" s="4"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1156,18 +1156,18 @@
       <c r="C23" s="3"/>
       <c r="D23" s="13"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1179,18 +1179,18 @@
       <c r="C24" s="3"/>
       <c r="D24" s="13"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1202,18 +1202,18 @@
       <c r="C25" s="3"/>
       <c r="D25" s="13"/>
       <c r="E25" s="4"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1223,18 +1223,18 @@
       <c r="C26" s="3"/>
       <c r="D26" s="13"/>
       <c r="E26" s="4"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1246,18 +1246,18 @@
       <c r="C27" s="3"/>
       <c r="D27" s="13"/>
       <c r="E27" s="4"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1267,18 +1267,18 @@
       <c r="C28" s="3"/>
       <c r="D28" s="13"/>
       <c r="E28" s="4"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1290,18 +1290,18 @@
       <c r="C29" s="3"/>
       <c r="D29" s="13"/>
       <c r="E29" s="4"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1311,164 +1311,164 @@
       <c r="C30" s="3"/>
       <c r="D30" s="13"/>
       <c r="E30" s="4"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
